--- a/biology/Botanique/Carl_Schröter/Carl_Schröter.xlsx
+++ b/biology/Botanique/Carl_Schröter/Carl_Schröter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Schr%C3%B6ter</t>
+          <t>Carl_Schröter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Joseph Schröter (né le 19 décembre 1855 à Esslingen am Neckar et mort le 7 février 1939 à Zurich) est un botaniste suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_Schr%C3%B6ter</t>
+          <t>Carl_Schröter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Henri Badoux (dir.) et Schweiz Forstwissenschafter (Extrait du Journal forestier suisse no 3), Le Dr Carl Schröter, professeur de botanique à Zurich : (1855-1939), S.l., 1939, 1 p., in-8° (OCLC 637083008)</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carl_Schr%C3%B6ter</t>
+          <t>Carl_Schröter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heinrich Zoller, « Schröter, Carl » dans le Dictionnaire historique de la Suisse en ligne, version du 24 août 2011.</t>
         </is>
